--- a/data/trans_camb/P23_8_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_8_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>4,83</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,02</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,73; -0,06</t>
+          <t>-4,56; 1,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 2,15</t>
+          <t>-1,96; 5,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 4,44</t>
+          <t>0,84; 11,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 5,85</t>
+          <t>-2,87; 6,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,53</t>
+          <t>-2,02; 6,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,12</t>
+          <t>-0,03; 10,66</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 2,91</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 5,11</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 8,99</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-55,58%</t>
+          <t>-55,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-24,69%</t>
+          <t>56,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>199,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,29%</t>
+          <t>45,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>101,16%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>47,58%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>132,38%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-84,83; 13,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-69,27; 87,93</t>
+          <t>-57,53; 547,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,11; 115,69</t>
+          <t>-1,27; 801,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 159,79</t>
+          <t>-47,48; 216,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,9; 40,74</t>
+          <t>-34,83; 239,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 80,03</t>
+          <t>-6,3; 368,87</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-52,16; 119,51</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-22,49; 207,69</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28,46; 362,27</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,51</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,83</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 8,81</t>
+          <t>-7,34; 10,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 2,88</t>
+          <t>-9,17; 1,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,69; -0,15</t>
+          <t>-4,92; 7,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,4; -0,64</t>
+          <t>-5,52; 3,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 2,44</t>
+          <t>-5,1; 4,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 0,31</t>
+          <t>-4,15; 5,33</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 3,74</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,59; 1,62</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 4,97</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>-28,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-19,54%</t>
+          <t>-49,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-51,83%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-53,7%</t>
+          <t>-26,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-30,67%</t>
+          <t>-10,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-41,57%</t>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-26,85%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-31,21%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10,11%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,37; 251,48</t>
+          <t>-91,14; 338,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,02; 97,74</t>
+          <t>-86,12; 75,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-80,11; 2,85</t>
+          <t>-57,27; 204,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-80,58; -6,42</t>
+          <t>-75,39; 133,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,67; 55,36</t>
+          <t>-70,23; 176,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,04; 13,3</t>
+          <t>-56,85; 222,21</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-72,14; 105,59</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-68,89; 43,59</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-41,22; 130,16</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>21,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>7,07</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,03</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,65</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 32,52</t>
+          <t>-2,5; 62,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 24,77</t>
+          <t>-2,75; 39,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 3,65</t>
+          <t>-4,25; 26,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 11,04</t>
+          <t>-14,9; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 16,14</t>
+          <t>-11,36; 5,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 14,55</t>
+          <t>-3,39; 22,51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; 34,38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 17,8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 18,61</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>102,3%</t>
+          <t>827,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>118,17%</t>
+          <t>310,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-40,52%</t>
+          <t>243,99%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,0%</t>
+          <t>-16,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>74,44%</t>
+          <t>220,79%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>312,97%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>131,73%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>230,37%</t>
         </is>
       </c>
     </row>
@@ -1047,12 +1243,27 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,1; 804,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,25; 536,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,67</t>
+          <t>-3,01; 9,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,94</t>
+          <t>-2,88; 4,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,17</t>
+          <t>-0,03; 7,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,18</t>
+          <t>-3,07; 2,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 1,75</t>
+          <t>-2,39; 3,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,65</t>
+          <t>-0,43; 6,89</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 4,34</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 3,01</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 6,31</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,54%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,76%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-21,78%</t>
+          <t>85,79%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,35%</t>
+          <t>-2,12%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-16,71%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-7,55%</t>
+          <t>68,09%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>11,7%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>75,54%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,85; 121,25</t>
+          <t>-70,11; 289,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,73; 87,25</t>
+          <t>-53,79; 156,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-51,2; 25,69</t>
+          <t>-3,06; 284,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 46,13</t>
+          <t>-49,35; 86,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 36,84</t>
+          <t>-37,12; 121,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,09; 34,94</t>
+          <t>-10,08; 192,1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-40,6; 118,79</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-32,01; 84,44</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>11,61; 178,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
